--- a/analyses/00_InhousePanels/data/Leipzig-Cancer_v6_gene-list.xlsx
+++ b/analyses/00_InhousePanels/data/Leipzig-Cancer_v6_gene-list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0C4E1F3E-2014-4902-A882-03C66226857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C600AD9-4942-487D-8711-0A034B2ABAE2}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{0C4E1F3E-2014-4902-A882-03C66226857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C3B6DBE-D516-4D5E-8381-210305003CC7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0CCBF641-BFE6-4BCA-9CB9-2EB270027A88}"/>
+    <workbookView xWindow="-38520" yWindow="-255" windowWidth="38640" windowHeight="21120" xr2:uid="{0CCBF641-BFE6-4BCA-9CB9-2EB270027A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Genes" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
     <t>NAF1</t>
   </si>
   <si>
-    <t>Genes</t>
+    <t>genes</t>
   </si>
 </sst>
 </file>
@@ -744,18 +744,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -766,6 +755,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
